--- a/Visualization/short_test_data.xlsx
+++ b/Visualization/short_test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetProjects\MISIS_ClassificationProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetProjects\MISIS_ClassificationProject\MISIS-recomendation-systems-\Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82572174-AB75-45A9-8B4E-5B563D6EBC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B7BA3D-9124-4326-9083-6531C6FA0C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="3090" windowWidth="23880" windowHeight="11295" xr2:uid="{5C5F2859-5104-4152-8098-DB5D906A3614}"/>
+    <workbookView xWindow="3585" yWindow="1815" windowWidth="23880" windowHeight="13455" xr2:uid="{5C5F2859-5104-4152-8098-DB5D906A3614}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,21 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>flow</t>
   </si>
   <si>
-    <t>mse</t>
-  </si>
-  <si>
     <t>rpm</t>
-  </si>
-  <si>
-    <t>dexp</t>
-  </si>
-  <si>
-    <t>rop</t>
   </si>
   <si>
     <t>wob</t>
@@ -410,20 +401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DC5B7E-6969-4123-BFFB-31B450E1A130}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -434,17 +425,8 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -455,22 +437,13 @@
         <v>3.2540824685714238E-2</v>
       </c>
       <c r="D2">
-        <v>1492511.9969032884</v>
+        <v>63.087142857142858</v>
       </c>
       <c r="E2">
-        <v>63.087142857142858</v>
-      </c>
-      <c r="F2">
-        <v>0.22793163861119944</v>
-      </c>
-      <c r="G2">
-        <v>2.6585258062499964E-2</v>
-      </c>
-      <c r="H2">
         <v>704.56166666666604</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -481,22 +454,13 @@
         <v>5.318401059999997E-2</v>
       </c>
       <c r="D3">
-        <v>3255663.6485019261</v>
+        <v>27.484399999999955</v>
       </c>
       <c r="E3">
-        <v>27.484399999999955</v>
-      </c>
-      <c r="F3">
-        <v>0.57029936458354924</v>
-      </c>
-      <c r="G3">
-        <v>1.755462252380947E-2</v>
-      </c>
-      <c r="H3">
         <v>7637.6925714285535</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -507,22 +471,13 @@
         <v>4.432206654444442E-2</v>
       </c>
       <c r="D4">
-        <v>6076453.1226364076</v>
+        <v>43.582333333333324</v>
       </c>
       <c r="E4">
-        <v>43.582333333333324</v>
-      </c>
-      <c r="F4">
-        <v>0.83256630116712349</v>
-      </c>
-      <c r="G4">
-        <v>1.4291494098765388E-2</v>
-      </c>
-      <c r="H4">
         <v>10089.161777777759</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -533,22 +488,13 @@
         <v>5.2594051108823481E-2</v>
       </c>
       <c r="D5">
-        <v>7662170.5970006268</v>
+        <v>39.431898305084701</v>
       </c>
       <c r="E5">
-        <v>39.431898305084701</v>
-      </c>
-      <c r="F5">
-        <v>0.76906754849300318</v>
-      </c>
-      <c r="G5">
-        <v>1.6869930154411777E-2</v>
-      </c>
-      <c r="H5">
         <v>12120.170176470556</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -559,256 +505,166 @@
         <v>3.8122877349999973E-2</v>
       </c>
       <c r="D6">
-        <v>16151773.727227882</v>
+        <v>63.532562499999962</v>
       </c>
       <c r="E6">
-        <v>63.532562499999962</v>
-      </c>
-      <c r="F6">
-        <v>1.0007088582245895</v>
-      </c>
-      <c r="G6">
-        <v>1.3972697498263874E-2</v>
-      </c>
-      <c r="H6">
         <v>14576.153874999973</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>3.4643373619999973E-2</v>
+      </c>
+      <c r="D7">
+        <v>26.039199999999834</v>
+      </c>
+      <c r="E7">
+        <v>8228.7697999999909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>3.4237248693333285E-2</v>
+      </c>
+      <c r="D8">
+        <v>50.786399999999922</v>
+      </c>
+      <c r="E8">
+        <v>9752.6087999999909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>3.4323552978823488E-2</v>
+      </c>
+      <c r="D9">
+        <v>47.715142857142872</v>
+      </c>
+      <c r="E9">
+        <v>10111.055835294092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>3.4508344941666616E-2</v>
+      </c>
+      <c r="D10">
+        <v>50.663166666666598</v>
+      </c>
+      <c r="E10">
+        <v>13051.61941666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>3.5330260524999955E-2</v>
+      </c>
+      <c r="D11">
+        <v>37.905769230769437</v>
+      </c>
+      <c r="E11">
+        <v>7467.2251249999736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>3.5583461716666612E-2</v>
+      </c>
+      <c r="D12">
+        <v>27.399714285714069</v>
+      </c>
+      <c r="E12">
+        <v>12025.28749999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>3.6053044535135047E-2</v>
+      </c>
+      <c r="D13">
+        <v>31.468161290322467</v>
+      </c>
+      <c r="E13">
+        <v>11869.949459459431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>361</v>
       </c>
-      <c r="C7">
+      <c r="C14">
         <v>3.5382982486111096E-2</v>
       </c>
-      <c r="D7">
-        <v>4221763.5484601352</v>
-      </c>
-      <c r="E7">
+      <c r="D14">
         <v>50.143990972222156</v>
       </c>
-      <c r="F7">
-        <v>0.89805779303038358</v>
-      </c>
-      <c r="G7">
-        <v>1.4295622271604845E-2</v>
-      </c>
-      <c r="H7">
+      <c r="E14">
         <v>8719.2513333333118</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>362</v>
       </c>
-      <c r="C8">
+      <c r="C15">
         <v>3.6579713519999946E-2</v>
       </c>
-      <c r="D8">
-        <v>18867490.721901104</v>
-      </c>
-      <c r="E8">
+      <c r="D15">
         <v>60.036439999999949</v>
       </c>
-      <c r="F8">
-        <v>0.94199571059115594</v>
-      </c>
-      <c r="G8">
-        <v>1.3752116113333235E-2</v>
-      </c>
-      <c r="H8">
+      <c r="E15">
         <v>11920.155519999949</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>3.4643373619999973E-2</v>
-      </c>
-      <c r="D9">
-        <v>9641104.7854384519</v>
-      </c>
-      <c r="E9">
-        <v>26.039199999999834</v>
-      </c>
-      <c r="F9">
-        <v>0.70738396830279515</v>
-      </c>
-      <c r="G9">
-        <v>1.3689454661111086E-2</v>
-      </c>
-      <c r="H9">
-        <v>8228.7697999999909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>38</v>
-      </c>
-      <c r="C10">
-        <v>3.4237248693333285E-2</v>
-      </c>
-      <c r="D10">
-        <v>16489518.637643268</v>
-      </c>
-      <c r="E10">
-        <v>50.786399999999922</v>
-      </c>
-      <c r="F10">
-        <v>0.81204048649613236</v>
-      </c>
-      <c r="G10">
-        <v>1.5971371585185311E-2</v>
-      </c>
-      <c r="H10">
-        <v>9752.6087999999909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>39</v>
-      </c>
-      <c r="C11">
-        <v>3.4323552978823488E-2</v>
-      </c>
-      <c r="D11">
-        <v>14421613.0152421</v>
-      </c>
-      <c r="E11">
-        <v>47.715142857142872</v>
-      </c>
-      <c r="F11">
-        <v>0.72639400334260928</v>
-      </c>
-      <c r="G11">
-        <v>2.1402497290196002E-2</v>
-      </c>
-      <c r="H11">
-        <v>10111.055835294092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <v>3.4508344941666616E-2</v>
-      </c>
-      <c r="D12">
-        <v>26230997.355176773</v>
-      </c>
-      <c r="E12">
-        <v>50.663166666666598</v>
-      </c>
-      <c r="F12">
-        <v>1.0039693462686767</v>
-      </c>
-      <c r="G12">
-        <v>1.0978076900462772E-2</v>
-      </c>
-      <c r="H12">
-        <v>13051.61941666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>3.5330260524999955E-2</v>
-      </c>
-      <c r="D13">
-        <v>11859605.696097149</v>
-      </c>
-      <c r="E13">
-        <v>37.905769230769437</v>
-      </c>
-      <c r="F13">
-        <v>0.7416747666489113</v>
-      </c>
-      <c r="G13">
-        <v>9.5976332222222939E-3</v>
-      </c>
-      <c r="H13">
-        <v>7467.2251249999736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>60</v>
-      </c>
-      <c r="C14">
-        <v>3.5583461716666612E-2</v>
-      </c>
-      <c r="D14">
-        <v>14658122.654379532</v>
-      </c>
-      <c r="E14">
-        <v>27.399714285714069</v>
-      </c>
-      <c r="F14">
-        <v>1.0530925610562831</v>
-      </c>
-      <c r="G14">
-        <v>6.3972437986110778E-3</v>
-      </c>
-      <c r="H14">
-        <v>12025.28749999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>61</v>
-      </c>
-      <c r="C15">
-        <v>3.6053044535135047E-2</v>
-      </c>
-      <c r="D15">
-        <v>17390888.931280524</v>
-      </c>
-      <c r="E15">
-        <v>31.468161290322467</v>
-      </c>
-      <c r="F15">
-        <v>1.0212824112527004</v>
-      </c>
-      <c r="G15">
-        <v>6.6909465135135005E-3</v>
-      </c>
-      <c r="H15">
-        <v>11869.949459459431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -819,22 +675,13 @@
         <v>3.0027830770833302E-2</v>
       </c>
       <c r="D16">
-        <v>26690058.27414136</v>
+        <v>38.063422222222066</v>
       </c>
       <c r="E16">
-        <v>38.063422222222066</v>
-      </c>
-      <c r="F16">
-        <v>1.1047698515909308</v>
-      </c>
-      <c r="G16">
-        <v>6.5185817766203703E-3</v>
-      </c>
-      <c r="H16">
         <v>12490.689041666679</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -845,22 +692,16 @@
         <v>1.5607706854838631E-2</v>
       </c>
       <c r="D17">
-        <v>100844702.88662055</v>
+        <v>94.461685483870951</v>
       </c>
       <c r="E17">
-        <v>94.461685483870951</v>
-      </c>
-      <c r="F17">
-        <v>1.0147319025565857</v>
-      </c>
-      <c r="G17">
-        <v>1.3390934181451536E-2</v>
-      </c>
-      <c r="H17">
         <v>6184.7084395161255</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+    <sortCondition ref="B2:B17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>